--- a/exceldata/excel/all/X-限时活动表.xlsx
+++ b/exceldata/excel/all/X-限时活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11540"/>
+    <workbookView windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="限时活动" sheetId="10" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
   <si>
     <t>备注信息</t>
   </si>
@@ -355,17 +355,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -392,14 +387,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -407,119 +394,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,6 +408,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -540,15 +431,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,16 +561,8 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,37 +583,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,163 +745,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,15 +842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -888,21 +862,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,6 +892,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -947,242 +915,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通数值" xfId="1"/>
-    <cellStyle name="常规 6" xfId="2"/>
-    <cellStyle name="常规 5" xfId="3"/>
+    <cellStyle name="1表头" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="3"/>
     <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 3 2" xfId="5"/>
-    <cellStyle name="常规 2" xfId="6"/>
-    <cellStyle name="1表头" xfId="7"/>
+    <cellStyle name="常规 5" xfId="5"/>
+    <cellStyle name="常规 6" xfId="6"/>
+    <cellStyle name="普通数值" xfId="7"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
@@ -1533,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -1542,23 +1522,24 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.875" style="9" customWidth="1"/>
     <col min="2" max="2" width="8" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.8214285714286" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25.8839285714286" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34.6696428571429" style="9" customWidth="1"/>
     <col min="6" max="7" width="34.75" style="9" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="9" customWidth="1"/>
     <col min="9" max="9" width="35" style="9" customWidth="1"/>
     <col min="10" max="10" width="34.125" style="9" customWidth="1"/>
     <col min="11" max="11" width="28.5" style="9" customWidth="1"/>
     <col min="12" max="12" width="34.125" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="9"/>
+    <col min="13" max="13" width="29.6071428571429" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -1703,7 +1684,7 @@
       <c r="M5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="A6" s="4" t="s">
@@ -1720,7 +1701,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1741,7 +1722,7 @@
       <c r="M6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="5"/>
@@ -1751,13 +1732,13 @@
       <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -1776,29 +1757,30 @@
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="5"/>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15" t="s">
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="5"/>
@@ -1812,13 +1794,13 @@
       <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1828,8 +1810,8 @@
       <c r="I9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L9" s="5"/>
@@ -1837,19 +1819,19 @@
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="5"/>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1861,10 +1843,10 @@
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="5"/>
@@ -1874,13 +1856,13 @@
       <c r="C11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -1891,27 +1873,27 @@
         <v>56</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="10" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -1922,11 +1904,11 @@
         <v>56</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="10" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="5"/>
@@ -1936,13 +1918,13 @@
       <c r="C13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -1953,15 +1935,15 @@
         <v>56</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="10" t="s">
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="5"/>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1970,10 +1952,10 @@
       <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -1988,12 +1970,14 @@
       <c r="J14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="15" t="s">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:13">
+    <row r="15" customHeight="1" spans="1:13">
+      <c r="A15" s="5"/>
       <c r="B15" s="5">
         <v>9</v>
       </c>
@@ -2003,10 +1987,10 @@
       <c r="D15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -2016,25 +2000,28 @@
       <c r="I15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="15" t="s">
+      <c r="J15" s="5"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:12">
-      <c r="B16" s="11">
+    <row r="16" customHeight="1" spans="1:13">
+      <c r="A16" s="5"/>
+      <c r="B16" s="10">
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -2046,61 +2033,74 @@
       <c r="I16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="J16" s="5"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:12">
-      <c r="B17" s="11" t="s">
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:13">
+      <c r="A17" s="5"/>
+      <c r="B17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:12">
-      <c r="B18" s="12" t="s">
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:13">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="J18" s="5"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13" t="s">
         <v>85</v>
       </c>
+      <c r="M18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2110,12 +2110,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="2"/>

--- a/exceldata/excel/all/X-限时活动表.xlsx
+++ b/exceldata/excel/all/X-限时活动表.xlsx
@@ -798,21 +798,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1123,10 +1123,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,13 +1138,16 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1522,27 +1522,27 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8" style="9" customWidth="1"/>
-    <col min="3" max="3" width="27.8214285714286" style="9" customWidth="1"/>
-    <col min="4" max="4" width="25.8839285714286" style="9" customWidth="1"/>
-    <col min="5" max="5" width="34.6696428571429" style="9" customWidth="1"/>
-    <col min="6" max="7" width="34.75" style="9" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="35" style="9" customWidth="1"/>
-    <col min="10" max="10" width="34.125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="28.5" style="9" customWidth="1"/>
-    <col min="12" max="12" width="34.125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="29.6071428571429" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="22.4642857142857" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.8214285714286" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.8214285714286" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.8839285714286" style="8" customWidth="1"/>
+    <col min="5" max="5" width="34.6696428571429" style="8" customWidth="1"/>
+    <col min="6" max="7" width="34.75" style="8" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="35" style="8" customWidth="1"/>
+    <col min="10" max="10" width="34.125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="28.5" style="8" customWidth="1"/>
+    <col min="12" max="12" width="34.125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="29.6071428571429" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1551,8 +1551,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" ht="62.25" customHeight="1" spans="1:8">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" ht="62.25" customHeight="1" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1561,6 +1566,11 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -1701,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1735,7 +1745,7 @@
       <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1757,7 +1767,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="5"/>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1779,8 +1789,8 @@
       <c r="I8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="5"/>
@@ -1810,8 +1820,8 @@
       <c r="I9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="L9" s="5"/>
@@ -1819,7 +1829,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="5"/>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1832,7 +1842,7 @@
         <v>54</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>55</v>
@@ -1843,7 +1853,7 @@
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="M10" s="5"/>
@@ -1863,7 +1873,7 @@
         <v>54</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>60</v>
@@ -1873,15 +1883,15 @@
         <v>56</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="13"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1904,11 +1914,11 @@
         <v>56</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13" t="s">
+      <c r="K12" s="12"/>
+      <c r="L12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="13"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="5"/>
@@ -1935,15 +1945,15 @@
         <v>56</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="13"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="5"/>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1970,9 +1980,9 @@
       <c r="J14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13" t="s">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2001,15 +2011,15 @@
         <v>72</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13" t="s">
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="5"/>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2030,19 +2040,19 @@
       <c r="H16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="14" t="s">
         <v>75</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13" t="s">
+      <c r="K16" s="12"/>
+      <c r="L16" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="13"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="5"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2065,11 +2075,11 @@
         <v>56</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13" t="s">
+      <c r="K17" s="12"/>
+      <c r="L17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="13"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="5"/>
@@ -2096,11 +2106,11 @@
         <v>56</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13" t="s">
+      <c r="K18" s="12"/>
+      <c r="L18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="13"/>
+      <c r="M18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2115,14 +2125,14 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="22.0267857142857" customWidth="1"/>
+    <col min="3" max="3" width="27.2232142857143" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
@@ -2226,21 +2236,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:3">
+      <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exceldata/excel/all/X-限时活动表.xlsx
+++ b/exceldata/excel/all/X-限时活动表.xlsx
@@ -1522,7 +1522,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1935,7 +1935,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>68</v>
@@ -2032,7 +2032,7 @@
         <v>75</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>76</v>
@@ -2096,7 +2096,7 @@
         <v>83</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>84</v>

--- a/exceldata/excel/all/X-限时活动表.xlsx
+++ b/exceldata/excel/all/X-限时活动表.xlsx
@@ -215,31 +215,31 @@
     <t>寻花觅柳图标</t>
   </si>
   <si>
+    <t>TLActivity1</t>
+  </si>
+  <si>
+    <t>盛夏将至</t>
+  </si>
+  <si>
+    <t>家族崛起</t>
+  </si>
+  <si>
+    <t>盛夏将至图标</t>
+  </si>
+  <si>
+    <t>TLActivity2</t>
+  </si>
+  <si>
+    <t>每日单冲1</t>
+  </si>
+  <si>
+    <t>精良装备</t>
+  </si>
+  <si>
+    <t>每日单充</t>
+  </si>
+  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>TLActivity1</t>
-  </si>
-  <si>
-    <t>盛夏将至</t>
-  </si>
-  <si>
-    <t>家族崛起</t>
-  </si>
-  <si>
-    <t>盛夏将至图标</t>
-  </si>
-  <si>
-    <t>TLActivity2</t>
-  </si>
-  <si>
-    <t>每日单冲1</t>
-  </si>
-  <si>
-    <t>精良装备</t>
-  </si>
-  <si>
-    <t>每日单充</t>
   </si>
   <si>
     <t>RechargeActivity2</t>
@@ -1522,7 +1522,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1780,10 +1780,10 @@
         <v>45</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
@@ -1802,19 +1802,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1833,16 +1833,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>55</v>
@@ -1870,10 +1870,10 @@
         <v>59</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>60</v>
@@ -1901,10 +1901,10 @@
         <v>63</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>64</v>
@@ -1932,10 +1932,10 @@
         <v>67</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>68</v>
@@ -2001,7 +2001,7 @@
         <v>72</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>74</v>
@@ -2032,7 +2032,7 @@
         <v>75</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>76</v>
@@ -2096,7 +2096,7 @@
         <v>83</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>84</v>

--- a/exceldata/excel/all/X-限时活动表.xlsx
+++ b/exceldata/excel/all/X-限时活动表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowWidth="27900" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="限时活动" sheetId="10" r:id="rId1"/>
@@ -355,10 +355,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -381,14 +381,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,6 +398,21 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,6 +430,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -422,145 +561,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -595,115 +595,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,61 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,6 +842,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -862,6 +871,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,15 +916,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -915,194 +930,179 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,13 +1156,13 @@
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="1表头" xfId="1"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3 2" xfId="3"/>
+    <cellStyle name="普通数值" xfId="1"/>
+    <cellStyle name="常规 6" xfId="2"/>
+    <cellStyle name="常规 5" xfId="3"/>
     <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 5" xfId="5"/>
-    <cellStyle name="常规 6" xfId="6"/>
-    <cellStyle name="普通数值" xfId="7"/>
+    <cellStyle name="常规 3 2" xfId="5"/>
+    <cellStyle name="常规 2" xfId="6"/>
+    <cellStyle name="1表头" xfId="7"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
@@ -1522,7 +1522,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -2065,7 +2065,7 @@
         <v>79</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>80</v>

--- a/exceldata/excel/all/X-限时活动表.xlsx
+++ b/exceldata/excel/all/X-限时活动表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
     <t>备注信息</t>
   </si>
@@ -236,9 +236,6 @@
     <t>精良装备</t>
   </si>
   <si>
-    <t>每日单充</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -355,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -380,27 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -411,6 +387,67 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -423,40 +460,45 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -479,38 +521,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,22 +533,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,22 +558,6 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -583,37 +580,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,19 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,121 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,8 +833,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,7 +843,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,8 +866,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,205 +927,179 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,13 +1153,13 @@
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通数值" xfId="1"/>
-    <cellStyle name="常规 6" xfId="2"/>
-    <cellStyle name="常规 5" xfId="3"/>
+    <cellStyle name="1表头" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="3"/>
     <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 3 2" xfId="5"/>
-    <cellStyle name="常规 2" xfId="6"/>
-    <cellStyle name="1表头" xfId="7"/>
+    <cellStyle name="常规 5" xfId="5"/>
+    <cellStyle name="常规 6" xfId="6"/>
+    <cellStyle name="普通数值" xfId="7"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="8" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="9" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="10" builtinId="41"/>
@@ -1522,7 +1519,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1839,22 +1836,22 @@
         <v>52</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M10" s="5"/>
     </row>
@@ -1864,28 +1861,28 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M11" s="12"/>
     </row>
@@ -1895,28 +1892,28 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" s="12"/>
     </row>
@@ -1926,28 +1923,28 @@
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M13" s="12"/>
     </row>
@@ -1963,13 +1960,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>42</v>
@@ -1978,12 +1975,12 @@
         <v>10</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -1992,29 +1989,29 @@
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
@@ -2023,92 +2020,92 @@
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M16" s="12"/>
     </row>
     <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="5"/>
       <c r="B17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M17" s="12"/>
     </row>
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M18" s="12"/>
     </row>
@@ -2162,7 +2159,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -2203,7 +2200,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>39</v>
@@ -2212,16 +2209,16 @@
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
@@ -2230,10 +2227,10 @@
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2242,7 +2239,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:3">
